--- a/roleskill.xlsx
+++ b/roleskill.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="roleskill" sheetId="1" r:id="rId1"/>
     <sheet name="monster" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="scene" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="139">
   <si>
     <t>core</t>
   </si>
@@ -196,6 +197,243 @@
   </si>
   <si>
     <t>Bossxhy</t>
+  </si>
+  <si>
+    <t>xinshoucun</t>
+  </si>
+  <si>
+    <t>shanlu</t>
+  </si>
+  <si>
+    <t>nanman</t>
+  </si>
+  <si>
+    <t>jindi</t>
+  </si>
+  <si>
+    <t>huangjiao</t>
+  </si>
+  <si>
+    <t>junying</t>
+  </si>
+  <si>
+    <t>chenglou</t>
+  </si>
+  <si>
+    <t>simiao</t>
+  </si>
+  <si>
+    <t>maolu</t>
+  </si>
+  <si>
+    <t>xianjing</t>
+  </si>
+  <si>
+    <t>youzhou</t>
+  </si>
+  <si>
+    <t>changbanpo</t>
+  </si>
+  <si>
+    <t>yinkengshan</t>
+  </si>
+  <si>
+    <t>sishui</t>
+  </si>
+  <si>
+    <t>chickenbattle</t>
+  </si>
+  <si>
+    <t>migong</t>
+  </si>
+  <si>
+    <t>hulao</t>
+  </si>
+  <si>
+    <t>baihe</t>
+  </si>
+  <si>
+    <t>zhanchang</t>
+  </si>
+  <si>
+    <t>digong</t>
+  </si>
+  <si>
+    <t>shulin</t>
+  </si>
+  <si>
+    <t>huayuan</t>
+  </si>
+  <si>
+    <t>Bosszl</t>
+  </si>
+  <si>
+    <t>luoyang</t>
+  </si>
+  <si>
+    <t>Bosszj</t>
+  </si>
+  <si>
+    <t>huanggong</t>
+  </si>
+  <si>
+    <t>luoyan</t>
+  </si>
+  <si>
+    <t>chibi</t>
+  </si>
+  <si>
+    <t>huarongdao</t>
+  </si>
+  <si>
+    <t>shuizhai</t>
+  </si>
+  <si>
+    <t>Bosszgl</t>
+  </si>
+  <si>
+    <t>xukong</t>
+  </si>
+  <si>
+    <t>Bosscaocao</t>
+  </si>
+  <si>
+    <t>Bosscaocaofinal</t>
+  </si>
+  <si>
+    <t>Bosszhurong</t>
+  </si>
+  <si>
+    <t>qingmanshan</t>
+  </si>
+  <si>
+    <t>Bosszhuyan</t>
+  </si>
+  <si>
+    <t>Bossxuanqing</t>
+  </si>
+  <si>
+    <t>Bossxingtian</t>
+  </si>
+  <si>
+    <t>BGMusic/digong</t>
+  </si>
+  <si>
+    <t>MonsterHumenHJ1</t>
+  </si>
+  <si>
+    <t>MonsterUnDead1</t>
+  </si>
+  <si>
+    <t>MonsterUnDead5</t>
+  </si>
+  <si>
+    <t>MonsterHumenBB</t>
+  </si>
+  <si>
+    <t>MonsterHumenHJ2</t>
+  </si>
+  <si>
+    <t>MonsterUnDead2</t>
+  </si>
+  <si>
+    <t>MonsterHumenGB</t>
+  </si>
+  <si>
+    <t>BGMusic/junying</t>
+  </si>
+  <si>
+    <t>MonsterUnDead3</t>
+  </si>
+  <si>
+    <t>MonsterHumenQB</t>
+  </si>
+  <si>
+    <t>MonsterUnDead4</t>
+  </si>
+  <si>
+    <t>MonsterHumenGirl</t>
+  </si>
+  <si>
+    <t>MonsterMechine1</t>
+  </si>
+  <si>
+    <t>MonsterMechineLoong</t>
+  </si>
+  <si>
+    <t>MonsterHumenMaga</t>
+  </si>
+  <si>
+    <t>BGMusic/conglin</t>
+  </si>
+  <si>
+    <t>MonsterLingBird</t>
+  </si>
+  <si>
+    <t>MonsterLingFire</t>
+  </si>
+  <si>
+    <t>MonsterLingFish</t>
+  </si>
+  <si>
+    <t>MonsterLingFox</t>
+  </si>
+  <si>
+    <t>BGMusic/shamo</t>
+  </si>
+  <si>
+    <t>MonsterUnDeadJJ</t>
+  </si>
+  <si>
+    <t>MonsterLingHD</t>
+  </si>
+  <si>
+    <t>MonsterUnDeadMP</t>
+  </si>
+  <si>
+    <t>MonsterLingPX</t>
+  </si>
+  <si>
+    <t>MonsterUnDeadQB</t>
+  </si>
+  <si>
+    <t>MonsterLingRock</t>
+  </si>
+  <si>
+    <t>MonsterUnDeadSkelet</t>
+  </si>
+  <si>
+    <t>MonsterLingTree</t>
+  </si>
+  <si>
+    <t>MonsterLingWW</t>
+  </si>
+  <si>
+    <t>MonsterYao2</t>
+  </si>
+  <si>
+    <t>MonsterYaoBear</t>
+  </si>
+  <si>
+    <t>MonsterYao3</t>
+  </si>
+  <si>
+    <t>MonsterYaoDog</t>
+  </si>
+  <si>
+    <t>MonsterYao4</t>
+  </si>
+  <si>
+    <t>MonsterYaoSnake</t>
+  </si>
+  <si>
+    <t>MonsterYaoTiger</t>
+  </si>
+  <si>
+    <t>MonsterUnDeadHand</t>
+  </si>
+  <si>
+    <t>MonsterUnDeadHead</t>
   </si>
 </sst>
 </file>
@@ -203,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -219,7 +457,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,120 +598,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -367,6 +605,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -376,7 +620,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,19 +710,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,31 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,91 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +802,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,8 +835,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +865,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -626,38 +894,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +907,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,138 +919,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1353,7 +1594,7 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1508,16 +1749,1316 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13">
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" t="s">
+        <v>62</v>
+      </c>
+      <c r="L28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13">
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13">
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13">
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13">
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13">
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13">
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13">
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13">
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="15:15">
+      <c r="O6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="15:15">
+      <c r="O12" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15">
+      <c r="O18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="15:15">
+      <c r="O24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="15:15">
+      <c r="O30" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="15:15">
+      <c r="O31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="15:15">
+      <c r="O32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15">
+      <c r="O33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>